--- a/src/main/resources/womenRevolveJeans.xlsx
+++ b/src/main/resources/womenRevolveJeans.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="146">
-  <si>
-    <t>Category</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="185">
+  <si>
+    <t>Id</t>
   </si>
   <si>
     <t>Image</t>
@@ -32,7 +32,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>DENIM</t>
+    <t>women_revolve_jeans_1</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ253_V1.jpg</t>
@@ -50,6 +50,9 @@
     <t>https://www.revolve.com/agolde-lana-straight-in-riptide/dp/AGOL-WJ253/?d=Womens&amp;page=1&amp;lc=1&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
+    <t>women_revolve_jeans_2</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/CITI-WJ1477_V1.jpg</t>
   </si>
   <si>
@@ -65,6 +68,24 @@
     <t>https://www.revolve.com/citizens-of-humanity-annina-jean-in-tularosa/dp/CITI-WJ1477/?d=Womens&amp;page=1&amp;lc=2&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
+    <t>women_revolve_jeans_3</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ241_V1.jpg</t>
+  </si>
+  <si>
+    <t>90's Mid Rise Loose Fit</t>
+  </si>
+  <si>
+    <t>CA$ 314.55</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-90s-mid-rise-loose-fit-in-snapshot/dp/AGOL-WJ241/?d=Womens&amp;page=1&amp;lc=3&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_4</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/LEIV-WF31_V1.jpg</t>
   </si>
   <si>
@@ -77,7 +98,22 @@
     <t>CA$ 107.40</t>
   </si>
   <si>
-    <t>https://www.revolve.com/levis-501-original-short-in-athens-mid-short/dp/LEIV-WF31/?d=Womens&amp;page=1&amp;lc=3&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/levis-501-original-short-in-athens-mid-short/dp/LEIV-WF31/?d=Womens&amp;page=1&amp;lc=4&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_5</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ234_V1.jpg</t>
+  </si>
+  <si>
+    <t>Pinch Waist High Rise Kick</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-pinch-waist-high-rise-kick-in-riptide/dp/AGOL-WJ234/?d=Womens&amp;page=1&amp;lc=5&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_6</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WN15_V1.jpg</t>
@@ -89,19 +125,10 @@
     <t>CA$ 235.53</t>
   </si>
   <si>
-    <t>https://www.revolve.com/agolde-parker-vintage-cut-off-short-in-swapmeet/dp/AGOL-WN15/?d=Womens&amp;page=1&amp;lc=4&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ241_V1.jpg</t>
-  </si>
-  <si>
-    <t>90's Mid Rise Loose Fit</t>
-  </si>
-  <si>
-    <t>CA$ 314.55</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-90s-mid-rise-loose-fit-in-snapshot/dp/AGOL-WJ241/?d=Womens&amp;page=1&amp;lc=5&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/agolde-parker-vintage-cut-off-short-in-swapmeet/dp/AGOL-WN15/?d=Womens&amp;page=1&amp;lc=6&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_7</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ179_V1.jpg</t>
@@ -110,28 +137,160 @@
     <t>Cherie High Rise Straight</t>
   </si>
   <si>
+    <t>CA$ 330.44</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-cherie-high-rise-straight-in-merit/dp/AGOL-WJ179/?d=Womens&amp;page=1&amp;lc=7&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_8</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ295_V1.jpg</t>
+  </si>
+  <si>
+    <t>90's Pinch Waist</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-90s-pinch-waist-in-navigate/dp/AGOL-WJ295/?d=Womens&amp;page=1&amp;lc=8&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_9</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ446_V1.jpg</t>
+  </si>
+  <si>
     <t>CA$ 268.85</t>
   </si>
   <si>
-    <t>https://www.revolve.com/agolde-cherie-high-rise-straight-in-merit/dp/AGOL-WJ179/?d=Womens&amp;page=1&amp;lc=6&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/agolde-90s-pinch-waist-in-range/dp/AGOL-WJ446/?d=Womens&amp;page=1&amp;lc=9&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_10</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ95_V1.jpg</t>
   </si>
   <si>
-    <t>https://www.revolve.com/agolde-90s-mid-rise-loose-fit-in-fall-out/dp/AGOL-WJ95/?d=Womens&amp;page=1&amp;lc=7&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ234_V1.jpg</t>
-  </si>
-  <si>
-    <t>Pinch Waist High Rise Kick</t>
+    <t>CA$ 349.29</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-90s-mid-rise-loose-fit-in-fall-out/dp/AGOL-WJ95/?d=Womens&amp;page=1&amp;lc=10&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_11</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SHOW-WC28_V1.jpg</t>
+  </si>
+  <si>
+    <t>Show Me Your Mumu</t>
+  </si>
+  <si>
+    <t>Jacksonville Jumpsuit</t>
+  </si>
+  <si>
+    <t>CA$ 362.21</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/show-me-your-mumu-jacksonville-jumpsuit-in-thunder/dp/SHOW-WC28/?d=Womens&amp;page=1&amp;lc=11&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_12</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ488_V1.jpg</t>
+  </si>
+  <si>
+    <t>Low Slung Baggy</t>
+  </si>
+  <si>
+    <t>CA$ 409.87</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-low-slung-baggy-in-libertine/dp/AGOL-WJ488/?d=Womens&amp;page=1&amp;lc=12&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_13</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ487_V1.jpg</t>
+  </si>
+  <si>
+    <t>Dame High Rise Wide Leg</t>
+  </si>
+  <si>
+    <t>CA$ 346.33</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-dame-high-rise-wide-leg-in-control/dp/AGOL-WJ487/?d=Womens&amp;page=1&amp;lc=13&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_14</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ503_V1.jpg</t>
+  </si>
+  <si>
+    <t>Harper Mid Rise Wide Straight</t>
+  </si>
+  <si>
+    <t>CA$ 264.37</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-harper-mid-rise-wide-straight-in-hush/dp/AGOL-WJ503/?d=Womens&amp;page=1&amp;lc=14&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_15</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SHOW-WD438_V1.jpg</t>
+  </si>
+  <si>
+    <t>Outlaw Dress</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/show-me-your-mumu-outlaw-dress-in-tide/dp/SHOW-WD438/?d=Womens&amp;page=1&amp;lc=15&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_16</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ232_V1.jpg</t>
+  </si>
+  <si>
+    <t>Riley High Rise Straight Crop</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-riley-high-rise-straight-crop-in-frequency/dp/AGOL-WJ232/?d=Womens&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_17</t>
+  </si>
+  <si>
+    <t>CA$ 151.70</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-riley-high-rise-straight-crop-in-frequency/dp/AGOL-WJ232/?d=Womens&amp;page=1&amp;lc=17&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_18</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LEIV-WJ336_V1.jpg</t>
+  </si>
+  <si>
+    <t>Ribcage Full Length</t>
   </si>
   <si>
     <t>CA$ 135.02</t>
   </si>
   <si>
-    <t>https://www.revolve.com/agolde-pinch-waist-high-rise-kick-in-riptide/dp/AGOL-WJ234/?d=Womens&amp;page=1&amp;lc=8&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/levis-ribcage-full-length-in-samba-tango-light/dp/LEIV-WJ336/?d=Womens&amp;page=1&amp;lc=18&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_19</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/FREE-WR213_V1.jpg</t>
@@ -143,10 +302,82 @@
     <t>x We The Free Ziggy Shortall</t>
   </si>
   <si>
-    <t>CA$ 151.70</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/free-people-x-we-the-free-ziggy-shortall-in-follow-your-heart/dp/FREE-WR213/?d=Womens&amp;page=1&amp;lc=9&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+    <t>CA$ 305.51</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/free-people-x-we-the-free-ziggy-shortall-in-follow-your-heart/dp/FREE-WR213/?d=Womens&amp;page=1&amp;lc=19&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_20</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/GRLR-WJ497_V1.jpg</t>
+  </si>
+  <si>
+    <t>GRLFRND</t>
+  </si>
+  <si>
+    <t>Sara Super High Rise Slim Straight</t>
+  </si>
+  <si>
+    <t>CA$ 309.58</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/grlfrnd-sara-super-high-rise-slim-straight-in-lenox-hill/dp/GRLR-WJ497/?d=Womens&amp;page=1&amp;lc=20&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_21</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/CITI-WJ1621_V1.jpg</t>
+  </si>
+  <si>
+    <t>Charlotte High Rise Straight</t>
+  </si>
+  <si>
+    <t>CA$ 404.63</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/citizens-of-humanity-charlotte-high-rise-straight-in-dresden/dp/CITI-WJ1621/?d=Womens&amp;page=1&amp;lc=21&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_22</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/CITI-WJ1775_V1.jpg</t>
+  </si>
+  <si>
+    <t>Brynn Drawstring Trouser</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/citizens-of-humanity-brynn-drawstring-trouser-in-blue-lace/dp/CITI-WJ1775/?d=Womens&amp;page=1&amp;lc=22&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_23</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ304_V1.jpg</t>
+  </si>
+  <si>
+    <t>CA$ 378.10</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-riley-high-rise-straight-crop-in-panoramic/dp/AGOL-WJ304/?d=Womens&amp;page=1&amp;lc=23&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_24</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/CITI-WJ1687_V1.jpg</t>
+  </si>
+  <si>
+    <t>Annina Trouser</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/citizens-of-humanity-annina-trouser-in-pinnacle/dp/CITI-WJ1687/?d=Womens&amp;page=1&amp;lc=24&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_25</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/FREE-WC170_V1.jpg</t>
@@ -155,85 +386,34 @@
     <t>x We The Free Ziggy Denim Overall</t>
   </si>
   <si>
-    <t>CA$ 264.37</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/free-people-x-we-the-free-ziggy-denim-overall-in-mineral-black/dp/FREE-WC170/?d=Womens&amp;page=1&amp;lc=10&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SHOW-WD438_V1.jpg</t>
-  </si>
-  <si>
-    <t>Show Me Your Mumu</t>
-  </si>
-  <si>
-    <t>Outlaw Dress</t>
-  </si>
-  <si>
-    <t>CA$ 349.29</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/show-me-your-mumu-outlaw-dress-in-tide/dp/SHOW-WD438/?d=Womens&amp;page=1&amp;lc=11&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SHOW-WC28_V1.jpg</t>
-  </si>
-  <si>
-    <t>Jacksonville Jumpsuit</t>
-  </si>
-  <si>
-    <t>CA$ 409.87</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/show-me-your-mumu-jacksonville-jumpsuit-in-thunder/dp/SHOW-WC28/?d=Womens&amp;page=1&amp;lc=12&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ487_V1.jpg</t>
-  </si>
-  <si>
-    <t>Dame High Rise Wide Leg</t>
-  </si>
-  <si>
-    <t>CA$ 330.44</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-dame-high-rise-wide-leg-in-control/dp/AGOL-WJ487/?d=Womens&amp;page=1&amp;lc=13&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ295_V1.jpg</t>
-  </si>
-  <si>
-    <t>90's Pinch Waist</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-90s-pinch-waist-in-navigate/dp/AGOL-WJ295/?d=Womens&amp;page=1&amp;lc=14&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ446_V1.jpg</t>
-  </si>
-  <si>
-    <t>CA$ 346.33</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-90s-pinch-waist-in-range/dp/AGOL-WJ446/?d=Womens&amp;page=1&amp;lc=15&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ503_V1.jpg</t>
-  </si>
-  <si>
-    <t>Harper Mid Rise Wide Straight</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-harper-mid-rise-wide-straight-in-hush/dp/AGOL-WJ503/?d=Womens&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LEIV-WJ336_V1.jpg</t>
-  </si>
-  <si>
-    <t>Ribcage Full Length</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/levis-ribcage-full-length-in-samba-tango-light/dp/LEIV-WJ336/?d=Womens&amp;page=1&amp;lc=17&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/free-people-x-we-the-free-ziggy-denim-overall-in-mineral-black/dp/FREE-WC170/?d=Womens&amp;page=1&amp;lc=25&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_26</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WF87_V1.jpg</t>
+  </si>
+  <si>
+    <t>Parker Long Short</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-parker-long-short-in-wheel/dp/AGOL-WF87/?d=Womens&amp;page=1&amp;lc=26&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_27</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/CITI-WJ1785_V1.jpg</t>
+  </si>
+  <si>
+    <t>Paloma Baggy</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/citizens-of-humanity-paloma-baggy-in-alemayde/dp/CITI-WJ1785/?d=Womens&amp;page=1&amp;lc=27&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_28</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ138_V1.jpg</t>
@@ -242,214 +422,151 @@
     <t>Criss Cross Upsized Jean</t>
   </si>
   <si>
-    <t>https://www.revolve.com/agolde-criss-cross-upsized-jean-in-suburbia/dp/AGOL-WJ138/?d=Womens&amp;page=1&amp;lc=18&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ530_V1.jpg</t>
-  </si>
-  <si>
-    <t>Harper Mid Rise Straight</t>
-  </si>
-  <si>
-    <t>CA$ 362.21</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-harper-mid-rise-straight-in-tempo/dp/AGOL-WJ530/?d=Womens&amp;page=1&amp;lc=19&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ488_V1.jpg</t>
-  </si>
-  <si>
-    <t>Low Slung Baggy</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-low-slung-baggy-in-libertine/dp/AGOL-WJ488/?d=Womens&amp;page=1&amp;lc=20&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ304_V1.jpg</t>
-  </si>
-  <si>
-    <t>Riley High Rise Straight Crop</t>
+    <t>https://www.revolve.com/agolde-criss-cross-upsized-jean-in-suburbia/dp/AGOL-WJ138/?d=Womens&amp;page=1&amp;lc=28&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_29</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LEIV-WJ226_V1.jpg</t>
+  </si>
+  <si>
+    <t>501 Straight</t>
+  </si>
+  <si>
+    <t>CA$ 391.05</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/levis-501-straight-in-luxor-last/dp/LEIV-WJ226/?d=Womens&amp;page=1&amp;lc=29&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_30</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/MOTH-WJ1472_V1.jpg</t>
+  </si>
+  <si>
+    <t>MOTHER</t>
+  </si>
+  <si>
+    <t>High Waisted Spinner Zip Heel Chew</t>
+  </si>
+  <si>
+    <t>CA$ 332.67</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/mother-high-waisted-spinner-zip-heel-chew-in-rollin-around/dp/MOTH-WJ1472/?d=Womens&amp;page=1&amp;lc=30&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_31</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/GRLR-WJ447_V1.jpg</t>
+  </si>
+  <si>
+    <t>Bella Low Rise Boyfriend</t>
   </si>
   <si>
     <t>CA$ 296.00</t>
   </si>
   <si>
-    <t>https://www.revolve.com/agolde-riley-high-rise-straight-crop-in-panoramic/dp/AGOL-WJ304/?d=Womens&amp;page=1&amp;lc=21&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/grlfrnd-bella-low-rise-boyfriend-in-santa-monica/dp/GRLR-WJ447/?d=Womens&amp;page=1&amp;lc=31&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_32</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SHOW-WC5_V1.jpg</t>
+  </si>
+  <si>
+    <t>Everhart Jumpsuit</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/show-me-your-mumu-everhart-jumpsuit-in-lunar-blue/dp/SHOW-WC5/?d=Womens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_33</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ533_V1.jpg</t>
+  </si>
+  <si>
+    <t>90s Pinch Waist High Rise Straight</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-90s-pinch-waist-high-rise-straight-in-crushed/dp/AGOL-WJ533/?d=Womens&amp;page=1&amp;lc=33&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_34</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ496_V1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-harper-mid-rise-wide-straight-in-flash/dp/AGOL-WJ496/?d=Womens&amp;page=1&amp;lc=34&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_35</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ472_V1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-riley-high-rise-straight-crop-in-dynamic/dp/AGOL-WJ472/?d=Womens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_36</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/MOTH-WJ886_V1.jpg</t>
   </si>
   <si>
-    <t>MOTHER</t>
-  </si>
-  <si>
     <t>The Hustler Ankle Fray</t>
   </si>
   <si>
-    <t>CA$ 404.63</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/mother-the-hustler-ankle-fray-in-fairest-of-them-all/dp/MOTH-WJ886/?d=Womens&amp;page=1&amp;lc=22&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/CITI-WJ1775_V1.jpg</t>
-  </si>
-  <si>
-    <t>Brynn Drawstring Trouser</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/citizens-of-humanity-brynn-drawstring-trouser-in-blue-lace/dp/CITI-WJ1775/?d=Womens&amp;page=1&amp;lc=23&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WF87_V1.jpg</t>
-  </si>
-  <si>
-    <t>Parker Long Short</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-parker-long-short-in-wheel/dp/AGOL-WF87/?d=Womens&amp;page=1&amp;lc=24&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ232_V1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-riley-high-rise-straight-crop-in-frequency/dp/AGOL-WJ232/?d=Womens&amp;page=1&amp;lc=25&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SHOW-WC5_V1.jpg</t>
-  </si>
-  <si>
-    <t>Everhart Jumpsuit</t>
-  </si>
-  <si>
-    <t>CA$ 332.67</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/show-me-your-mumu-everhart-jumpsuit-in-lunar-blue/dp/SHOW-WC5/?d=Womens&amp;page=1&amp;lc=26&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/GRLR-WJ447_V1.jpg</t>
-  </si>
-  <si>
-    <t>GRLFRND</t>
-  </si>
-  <si>
-    <t>Bella Low Rise Boyfriend</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/grlfrnd-bella-low-rise-boyfriend-in-santa-monica/dp/GRLR-WJ447/?d=Womens&amp;page=1&amp;lc=27&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FREE-WC121_V1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/free-people-x-we-the-free-ziggy-denim-overall-in-powder-blue/dp/FREE-WC121/?d=Womens&amp;page=1&amp;lc=28&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/MOTH-WJ1149_V1.jpg</t>
-  </si>
-  <si>
-    <t>The Insider Crop Step Fray</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/mother-the-insider-crop-step-fray-in-limited-edition/dp/MOTH-WJ1149/?d=Womens&amp;page=1&amp;lc=29&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/CITI-WJ1785_V1.jpg</t>
-  </si>
-  <si>
-    <t>Paloma Baggy</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/citizens-of-humanity-paloma-baggy-in-alemayde/dp/CITI-WJ1785/?d=Womens&amp;page=1&amp;lc=30&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ496_V1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-harper-mid-rise-wide-straight-in-flash/dp/AGOL-WJ496/?d=Womens&amp;page=1&amp;lc=31&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LEIV-WJ226_V1.jpg</t>
-  </si>
-  <si>
-    <t>501 Straight</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/levis-501-straight-in-luxor-last/dp/LEIV-WJ226/?d=Womens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FREE-WF211_V1.jpg</t>
-  </si>
-  <si>
-    <t>x We The Free Emmy Denim Skort</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/free-people-x-we-the-free-emmy-denim-skort-in-light-blue-wash/dp/FREE-WF211/?d=Womens&amp;page=1&amp;lc=33&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/mother-the-hustler-ankle-fray-in-fairest-of-them-all/dp/MOTH-WJ886/?d=Womens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_37</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/CITI-WJ1483_V1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/citizens-of-humanity-annina-trouser-in-blue-rose/dp/CITI-WJ1483/?d=Womens&amp;page=1&amp;lc=37&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_38</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FREE-WJ291_V1.jpg</t>
+  </si>
+  <si>
+    <t>x We The Free Good Luck Mid Rise Barrel</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/free-people-x-we-the-free-good-luck-mid-rise-barrel-in-ultra-light-beam/dp/FREE-WJ291/?d=Womens&amp;page=1&amp;lc=38&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_39</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/LEIV-WJ305_V1.jpg</t>
   </si>
   <si>
-    <t>CA$ 309.58</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/levis-501-straight-in-hollow-days/dp/LEIV-WJ305/?d=Womens&amp;page=1&amp;lc=34&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/MOTH-WJ1059_V1.jpg</t>
-  </si>
-  <si>
-    <t>Mid Rise Dazzler Ankle Fray</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/mother-mid-rise-dazzler-ankle-fray-in-riding-the-cliffside/dp/MOTH-WJ1059/?d=Womens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/CITI-WJ1483_V1.jpg</t>
-  </si>
-  <si>
-    <t>Annina Trouser</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/citizens-of-humanity-annina-trouser-in-blue-rose/dp/CITI-WJ1483/?d=Womens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ533_V1.jpg</t>
-  </si>
-  <si>
-    <t>90s Pinch Waist High Rise Straight</t>
+    <t>https://www.revolve.com/levis-501-straight-in-hollow-days/dp/LEIV-WJ305/?d=Womens&amp;page=1&amp;lc=39&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_40</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/CITI-WJ1808_V1.jpg</t>
   </si>
   <si>
     <t>CA$ 319.09</t>
   </si>
   <si>
-    <t>https://www.revolve.com/agolde-90s-pinch-waist-high-rise-straight-in-crushed/dp/AGOL-WJ533/?d=Womens&amp;page=1&amp;lc=37&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/GRLR-WJ498_V1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/grlfrnd-bella-low-rise-boyfriend-in-gramercy-park/dp/GRLR-WJ498/?d=Womens&amp;page=1&amp;lc=38&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WF62_V1.jpg</t>
-  </si>
-  <si>
-    <t>CA$ 269.17</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-parker-long-short-in-panna-cotta/dp/AGOL-WF62/?d=Womens&amp;page=1&amp;lc=39&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SHOW-WR124_V1.jpg</t>
-  </si>
-  <si>
-    <t>Cannon Romper</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/show-me-your-mumu-cannon-romper-in-dockside/dp/SHOW-WR124/?d=Womens&amp;page=1&amp;lc=40&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/citizens-of-humanity-annina-jean-in-prophecy/dp/CITI-WJ1808/?d=Womens&amp;page=1&amp;lc=40&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
 </sst>
 </file>
@@ -542,782 +659,782 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>83</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>95</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>98</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>100</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>108</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>110</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>113</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>6</v>
+        <v>142</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>116</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>121</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>124</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>127</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>6</v>
+        <v>164</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="F36" t="s" s="0">
-        <v>130</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>6</v>
+        <v>167</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>133</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>6</v>
+        <v>171</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>137</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>6</v>
+        <v>174</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>139</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>6</v>
+        <v>178</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>142</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>6</v>
+        <v>181</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="F41" t="s" s="0">
-        <v>145</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/womenRevolveJeans.xlsx
+++ b/src/main/resources/womenRevolveJeans.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="181">
   <si>
     <t>Id</t>
   </si>
@@ -53,6 +53,24 @@
     <t>women_revolve_jeans_2</t>
   </si>
   <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LEIV-WF31_V1.jpg</t>
+  </si>
+  <si>
+    <t>LEVI'S</t>
+  </si>
+  <si>
+    <t>501 Original Short</t>
+  </si>
+  <si>
+    <t>CA$ 107.40</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/levis-501-original-short-in-athens-mid-short/dp/LEIV-WF31/?d=Womens&amp;page=1&amp;lc=2&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_3</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/CITI-WJ1477_V1.jpg</t>
   </si>
   <si>
@@ -65,10 +83,10 @@
     <t>CA$ 323.16</t>
   </si>
   <si>
-    <t>https://www.revolve.com/citizens-of-humanity-annina-jean-in-tularosa/dp/CITI-WJ1477/?d=Womens&amp;page=1&amp;lc=2&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_3</t>
+    <t>https://www.revolve.com/citizens-of-humanity-annina-jean-in-tularosa/dp/CITI-WJ1477/?d=Womens&amp;page=1&amp;lc=3&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_4</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ241_V1.jpg</t>
@@ -80,55 +98,88 @@
     <t>CA$ 314.55</t>
   </si>
   <si>
-    <t>https://www.revolve.com/agolde-90s-mid-rise-loose-fit-in-snapshot/dp/AGOL-WJ241/?d=Womens&amp;page=1&amp;lc=3&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_4</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LEIV-WF31_V1.jpg</t>
-  </si>
-  <si>
-    <t>LEVI'S</t>
-  </si>
-  <si>
-    <t>501 Original Short</t>
-  </si>
-  <si>
-    <t>CA$ 107.40</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/levis-501-original-short-in-athens-mid-short/dp/LEIV-WF31/?d=Womens&amp;page=1&amp;lc=4&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/agolde-90s-mid-rise-loose-fit-in-snapshot/dp/AGOL-WJ241/?d=Womens&amp;page=1&amp;lc=4&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>women_revolve_jeans_5</t>
   </si>
   <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WN15_V1.jpg</t>
+  </si>
+  <si>
+    <t>Parker Vintage Cut Off Short</t>
+  </si>
+  <si>
+    <t>CA$ 235.53</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-parker-vintage-cut-off-short-in-swapmeet/dp/AGOL-WN15/?d=Womens&amp;page=1&amp;lc=5&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_6</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FREE-WR213_V1.jpg</t>
+  </si>
+  <si>
+    <t>Free People</t>
+  </si>
+  <si>
+    <t>x We The Free Ziggy Shortall</t>
+  </si>
+  <si>
+    <t>CA$ 135.02</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/free-people-x-we-the-free-ziggy-shortall-in-follow-your-heart/dp/FREE-WR213/?d=Womens&amp;page=1&amp;lc=6&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_7</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ234_V1.jpg</t>
   </si>
   <si>
     <t>Pinch Waist High Rise Kick</t>
   </si>
   <si>
-    <t>https://www.revolve.com/agolde-pinch-waist-high-rise-kick-in-riptide/dp/AGOL-WJ234/?d=Womens&amp;page=1&amp;lc=5&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_6</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WN15_V1.jpg</t>
-  </si>
-  <si>
-    <t>Parker Vintage Cut Off Short</t>
-  </si>
-  <si>
-    <t>CA$ 235.53</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-parker-vintage-cut-off-short-in-swapmeet/dp/AGOL-WN15/?d=Womens&amp;page=1&amp;lc=6&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_7</t>
+    <t>https://www.revolve.com/agolde-pinch-waist-high-rise-kick-in-riptide/dp/AGOL-WJ234/?d=Womens&amp;page=1&amp;lc=7&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_8</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SHOW-WC28_V1.jpg</t>
+  </si>
+  <si>
+    <t>Show Me Your Mumu</t>
+  </si>
+  <si>
+    <t>Jacksonville Jumpsuit</t>
+  </si>
+  <si>
+    <t>CA$ 349.29</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/show-me-your-mumu-jacksonville-jumpsuit-in-thunder/dp/SHOW-WC28/?d=Womens&amp;page=1&amp;lc=8&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_9</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SHOW-WD438_V1.jpg</t>
+  </si>
+  <si>
+    <t>Outlaw Dress</t>
+  </si>
+  <si>
+    <t>CA$ 264.37</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/show-me-your-mumu-outlaw-dress-in-tide/dp/SHOW-WD438/?d=Womens&amp;page=1&amp;lc=9&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_10</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ179_V1.jpg</t>
@@ -137,13 +188,28 @@
     <t>Cherie High Rise Straight</t>
   </si>
   <si>
+    <t>CA$ 151.70</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-cherie-high-rise-straight-in-merit/dp/AGOL-WJ179/?d=Womens&amp;page=1&amp;lc=10&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_11</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FREE-WC170_V1.jpg</t>
+  </si>
+  <si>
+    <t>x We The Free Ziggy Denim Overall</t>
+  </si>
+  <si>
     <t>CA$ 330.44</t>
   </si>
   <si>
-    <t>https://www.revolve.com/agolde-cherie-high-rise-straight-in-merit/dp/AGOL-WJ179/?d=Womens&amp;page=1&amp;lc=7&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_8</t>
+    <t>https://www.revolve.com/free-people-x-we-the-free-ziggy-denim-overall-in-mineral-black/dp/FREE-WC170/?d=Womens&amp;page=1&amp;lc=11&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_12</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ295_V1.jpg</t>
@@ -152,52 +218,70 @@
     <t>90's Pinch Waist</t>
   </si>
   <si>
-    <t>https://www.revolve.com/agolde-90s-pinch-waist-in-navigate/dp/AGOL-WJ295/?d=Womens&amp;page=1&amp;lc=8&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_9</t>
+    <t>CA$ 268.85</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-90s-pinch-waist-in-navigate/dp/AGOL-WJ295/?d=Womens&amp;page=1&amp;lc=12&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_13</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ95_V1.jpg</t>
+  </si>
+  <si>
+    <t>CA$ 409.87</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-90s-mid-rise-loose-fit-in-fall-out/dp/AGOL-WJ95/?d=Womens&amp;page=1&amp;lc=13&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_14</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ487_V1.jpg</t>
+  </si>
+  <si>
+    <t>Dame High Rise Wide Leg</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-dame-high-rise-wide-leg-in-control/dp/AGOL-WJ487/?d=Womens&amp;page=1&amp;lc=14&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_15</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ446_V1.jpg</t>
   </si>
   <si>
-    <t>CA$ 268.85</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-90s-pinch-waist-in-range/dp/AGOL-WJ446/?d=Womens&amp;page=1&amp;lc=9&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_10</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ95_V1.jpg</t>
-  </si>
-  <si>
-    <t>CA$ 349.29</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-90s-mid-rise-loose-fit-in-fall-out/dp/AGOL-WJ95/?d=Womens&amp;page=1&amp;lc=10&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_11</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SHOW-WC28_V1.jpg</t>
-  </si>
-  <si>
-    <t>Show Me Your Mumu</t>
-  </si>
-  <si>
-    <t>Jacksonville Jumpsuit</t>
+    <t>CA$ 346.33</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-90s-pinch-waist-in-range/dp/AGOL-WJ446/?d=Womens&amp;page=1&amp;lc=15&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_16</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ503_V1.jpg</t>
+  </si>
+  <si>
+    <t>Harper Mid Rise Wide Straight</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-harper-mid-rise-wide-straight-in-hush/dp/AGOL-WJ503/?d=Womens&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_17</t>
   </si>
   <si>
     <t>CA$ 362.21</t>
   </si>
   <si>
-    <t>https://www.revolve.com/show-me-your-mumu-jacksonville-jumpsuit-in-thunder/dp/SHOW-WC28/?d=Womens&amp;page=1&amp;lc=11&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_12</t>
+    <t>https://www.revolve.com/agolde-harper-mid-rise-wide-straight-in-hush/dp/AGOL-WJ503/?d=Womens&amp;page=1&amp;lc=17&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_18</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ488_V1.jpg</t>
@@ -206,55 +290,64 @@
     <t>Low Slung Baggy</t>
   </si>
   <si>
-    <t>CA$ 409.87</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-low-slung-baggy-in-libertine/dp/AGOL-WJ488/?d=Womens&amp;page=1&amp;lc=12&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_13</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ487_V1.jpg</t>
-  </si>
-  <si>
-    <t>Dame High Rise Wide Leg</t>
-  </si>
-  <si>
-    <t>CA$ 346.33</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-dame-high-rise-wide-leg-in-control/dp/AGOL-WJ487/?d=Womens&amp;page=1&amp;lc=13&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_14</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ503_V1.jpg</t>
-  </si>
-  <si>
-    <t>Harper Mid Rise Wide Straight</t>
-  </si>
-  <si>
-    <t>CA$ 264.37</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-harper-mid-rise-wide-straight-in-hush/dp/AGOL-WJ503/?d=Womens&amp;page=1&amp;lc=14&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_15</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SHOW-WD438_V1.jpg</t>
-  </si>
-  <si>
-    <t>Outlaw Dress</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/show-me-your-mumu-outlaw-dress-in-tide/dp/SHOW-WD438/?d=Womens&amp;page=1&amp;lc=15&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_16</t>
+    <t>https://www.revolve.com/agolde-low-slung-baggy-in-libertine/dp/AGOL-WJ488/?d=Womens&amp;page=1&amp;lc=18&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_19</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ138_V1.jpg</t>
+  </si>
+  <si>
+    <t>Criss Cross Upsized Jean</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-criss-cross-upsized-jean-in-suburbia/dp/AGOL-WJ138/?d=Womens&amp;page=1&amp;lc=19&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_20</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ530_V1.jpg</t>
+  </si>
+  <si>
+    <t>Harper Mid Rise Straight</t>
+  </si>
+  <si>
+    <t>CA$ 296.00</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-harper-mid-rise-straight-in-tempo/dp/AGOL-WJ530/?d=Womens&amp;page=1&amp;lc=20&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_21</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/MOTH-WJ886_V1.jpg</t>
+  </si>
+  <si>
+    <t>MOTHER</t>
+  </si>
+  <si>
+    <t>The Hustler Ankle Fray</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/mother-the-hustler-ankle-fray-in-fairest-of-them-all/dp/MOTH-WJ886/?d=Womens&amp;page=1&amp;lc=21&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_22</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SHOW-WC5_V1.jpg</t>
+  </si>
+  <si>
+    <t>Everhart Jumpsuit</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/show-me-your-mumu-everhart-jumpsuit-in-lunar-blue/dp/SHOW-WC5/?d=Womens&amp;page=1&amp;lc=22&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_23</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ232_V1.jpg</t>
@@ -263,85 +356,163 @@
     <t>Riley High Rise Straight Crop</t>
   </si>
   <si>
-    <t>https://www.revolve.com/agolde-riley-high-rise-straight-crop-in-frequency/dp/AGOL-WJ232/?d=Womens&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_17</t>
-  </si>
-  <si>
-    <t>CA$ 151.70</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-riley-high-rise-straight-crop-in-frequency/dp/AGOL-WJ232/?d=Womens&amp;page=1&amp;lc=17&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_18</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LEIV-WJ336_V1.jpg</t>
-  </si>
-  <si>
-    <t>Ribcage Full Length</t>
-  </si>
-  <si>
-    <t>CA$ 135.02</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/levis-ribcage-full-length-in-samba-tango-light/dp/LEIV-WJ336/?d=Womens&amp;page=1&amp;lc=18&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_19</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FREE-WR213_V1.jpg</t>
-  </si>
-  <si>
-    <t>Free People</t>
-  </si>
-  <si>
-    <t>x We The Free Ziggy Shortall</t>
-  </si>
-  <si>
-    <t>CA$ 305.51</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/free-people-x-we-the-free-ziggy-shortall-in-follow-your-heart/dp/FREE-WR213/?d=Womens&amp;page=1&amp;lc=19&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_20</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/GRLR-WJ497_V1.jpg</t>
+    <t>https://www.revolve.com/agolde-riley-high-rise-straight-crop-in-frequency/dp/AGOL-WJ232/?d=Womens&amp;page=1&amp;lc=23&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_24</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FREE-WJ291_V1.jpg</t>
+  </si>
+  <si>
+    <t>x We The Free Good Luck Mid Rise Barrel</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/free-people-x-we-the-free-good-luck-mid-rise-barrel-in-ultra-light-beam/dp/FREE-WJ291/?d=Womens&amp;page=1&amp;lc=24&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_25</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FREE-WC121_V1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/free-people-x-we-the-free-ziggy-denim-overall-in-powder-blue/dp/FREE-WC121/?d=Womens&amp;page=1&amp;lc=25&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_26</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ304_V1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-riley-high-rise-straight-crop-in-panoramic/dp/AGOL-WJ304/?d=Womens&amp;page=1&amp;lc=26&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_27</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WF87_V1.jpg</t>
+  </si>
+  <si>
+    <t>Parker Long Short</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-parker-long-short-in-wheel/dp/AGOL-WF87/?d=Womens&amp;page=1&amp;lc=27&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_28</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FREE-WF211_V1.jpg</t>
+  </si>
+  <si>
+    <t>x We The Free Emmy Denim Skort</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/free-people-x-we-the-free-emmy-denim-skort-in-light-blue-wash/dp/FREE-WF211/?d=Womens&amp;page=1&amp;lc=28&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_29</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/CITI-WJ1785_V1.jpg</t>
+  </si>
+  <si>
+    <t>Paloma Baggy</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/citizens-of-humanity-paloma-baggy-in-alemayde/dp/CITI-WJ1785/?d=Womens&amp;page=1&amp;lc=29&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_30</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LEIV-WO65_V1.jpg</t>
+  </si>
+  <si>
+    <t>90s Trucker</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/levis-90s-trucker-in-soft-as-butter/dp/LEIV-WO65/?d=Womens&amp;page=1&amp;lc=30&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_31</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LEIV-WJ226_V1.jpg</t>
+  </si>
+  <si>
+    <t>501 Straight</t>
+  </si>
+  <si>
+    <t>CA$ 332.67</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/levis-501-straight-in-luxor-last/dp/LEIV-WJ226/?d=Womens&amp;page=1&amp;lc=31&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_32</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/GRLR-WJ447_V1.jpg</t>
   </si>
   <si>
     <t>GRLFRND</t>
   </si>
   <si>
-    <t>Sara Super High Rise Slim Straight</t>
-  </si>
-  <si>
-    <t>CA$ 309.58</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/grlfrnd-sara-super-high-rise-slim-straight-in-lenox-hill/dp/GRLR-WJ497/?d=Womens&amp;page=1&amp;lc=20&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_21</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/CITI-WJ1621_V1.jpg</t>
-  </si>
-  <si>
-    <t>Charlotte High Rise Straight</t>
+    <t>Bella Low Rise Boyfriend</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/grlfrnd-bella-low-rise-boyfriend-in-santa-monica/dp/GRLR-WJ447/?d=Womens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_33</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ472_V1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-riley-high-rise-straight-crop-in-dynamic/dp/AGOL-WJ472/?d=Womens&amp;page=1&amp;lc=33&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_34</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/MOTH-WJ1149_V1.jpg</t>
+  </si>
+  <si>
+    <t>The Insider Crop Step Fray</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/mother-the-insider-crop-step-fray-in-limited-edition/dp/MOTH-WJ1149/?d=Womens&amp;page=1&amp;lc=34&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_35</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ533_V1.jpg</t>
+  </si>
+  <si>
+    <t>90s Pinch Waist High Rise Straight</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-90s-pinch-waist-high-rise-straight-in-crushed/dp/AGOL-WJ533/?d=Womens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_36</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LEIV-WJ305_V1.jpg</t>
   </si>
   <si>
     <t>CA$ 404.63</t>
   </si>
   <si>
-    <t>https://www.revolve.com/citizens-of-humanity-charlotte-high-rise-straight-in-dresden/dp/CITI-WJ1621/?d=Womens&amp;page=1&amp;lc=21&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_22</t>
+    <t>https://www.revolve.com/levis-501-straight-in-hollow-days/dp/LEIV-WJ305/?d=Womens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_37</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/CITI-WJ1775_V1.jpg</t>
@@ -350,223 +521,40 @@
     <t>Brynn Drawstring Trouser</t>
   </si>
   <si>
-    <t>https://www.revolve.com/citizens-of-humanity-brynn-drawstring-trouser-in-blue-lace/dp/CITI-WJ1775/?d=Womens&amp;page=1&amp;lc=22&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_23</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ304_V1.jpg</t>
-  </si>
-  <si>
-    <t>CA$ 378.10</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-riley-high-rise-straight-crop-in-panoramic/dp/AGOL-WJ304/?d=Womens&amp;page=1&amp;lc=23&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_24</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/CITI-WJ1687_V1.jpg</t>
-  </si>
-  <si>
-    <t>Annina Trouser</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/citizens-of-humanity-annina-trouser-in-pinnacle/dp/CITI-WJ1687/?d=Womens&amp;page=1&amp;lc=24&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_25</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FREE-WC170_V1.jpg</t>
-  </si>
-  <si>
-    <t>x We The Free Ziggy Denim Overall</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/free-people-x-we-the-free-ziggy-denim-overall-in-mineral-black/dp/FREE-WC170/?d=Womens&amp;page=1&amp;lc=25&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_26</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WF87_V1.jpg</t>
-  </si>
-  <si>
-    <t>Parker Long Short</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-parker-long-short-in-wheel/dp/AGOL-WF87/?d=Womens&amp;page=1&amp;lc=26&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_27</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/CITI-WJ1785_V1.jpg</t>
-  </si>
-  <si>
-    <t>Paloma Baggy</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/citizens-of-humanity-paloma-baggy-in-alemayde/dp/CITI-WJ1785/?d=Womens&amp;page=1&amp;lc=27&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_28</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ138_V1.jpg</t>
-  </si>
-  <si>
-    <t>Criss Cross Upsized Jean</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-criss-cross-upsized-jean-in-suburbia/dp/AGOL-WJ138/?d=Womens&amp;page=1&amp;lc=28&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_29</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LEIV-WJ226_V1.jpg</t>
-  </si>
-  <si>
-    <t>501 Straight</t>
-  </si>
-  <si>
-    <t>CA$ 391.05</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/levis-501-straight-in-luxor-last/dp/LEIV-WJ226/?d=Womens&amp;page=1&amp;lc=29&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_30</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/MOTH-WJ1472_V1.jpg</t>
-  </si>
-  <si>
-    <t>MOTHER</t>
-  </si>
-  <si>
-    <t>High Waisted Spinner Zip Heel Chew</t>
-  </si>
-  <si>
-    <t>CA$ 332.67</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/mother-high-waisted-spinner-zip-heel-chew-in-rollin-around/dp/MOTH-WJ1472/?d=Womens&amp;page=1&amp;lc=30&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_31</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/GRLR-WJ447_V1.jpg</t>
-  </si>
-  <si>
-    <t>Bella Low Rise Boyfriend</t>
-  </si>
-  <si>
-    <t>CA$ 296.00</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/grlfrnd-bella-low-rise-boyfriend-in-santa-monica/dp/GRLR-WJ447/?d=Womens&amp;page=1&amp;lc=31&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_32</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SHOW-WC5_V1.jpg</t>
-  </si>
-  <si>
-    <t>Everhart Jumpsuit</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/show-me-your-mumu-everhart-jumpsuit-in-lunar-blue/dp/SHOW-WC5/?d=Womens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_33</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ533_V1.jpg</t>
-  </si>
-  <si>
-    <t>90s Pinch Waist High Rise Straight</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-90s-pinch-waist-high-rise-straight-in-crushed/dp/AGOL-WJ533/?d=Womens&amp;page=1&amp;lc=33&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_34</t>
+    <t>https://www.revolve.com/citizens-of-humanity-brynn-drawstring-trouser-in-blue-lace/dp/CITI-WJ1775/?d=Womens&amp;page=1&amp;lc=37&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_38</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ496_V1.jpg</t>
   </si>
   <si>
-    <t>https://www.revolve.com/agolde-harper-mid-rise-wide-straight-in-flash/dp/AGOL-WJ496/?d=Womens&amp;page=1&amp;lc=34&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_35</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ472_V1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-riley-high-rise-straight-crop-in-dynamic/dp/AGOL-WJ472/?d=Womens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_36</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/MOTH-WJ886_V1.jpg</t>
-  </si>
-  <si>
-    <t>The Hustler Ankle Fray</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/mother-the-hustler-ankle-fray-in-fairest-of-them-all/dp/MOTH-WJ886/?d=Womens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_37</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/CITI-WJ1483_V1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/citizens-of-humanity-annina-trouser-in-blue-rose/dp/CITI-WJ1483/?d=Womens&amp;page=1&amp;lc=37&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_38</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FREE-WJ291_V1.jpg</t>
-  </si>
-  <si>
-    <t>x We The Free Good Luck Mid Rise Barrel</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/free-people-x-we-the-free-good-luck-mid-rise-barrel-in-ultra-light-beam/dp/FREE-WJ291/?d=Womens&amp;page=1&amp;lc=38&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+    <t>CA$ 269.17</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-harper-mid-rise-wide-straight-in-flash/dp/AGOL-WJ496/?d=Womens&amp;page=1&amp;lc=38&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>women_revolve_jeans_39</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LEIV-WJ305_V1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/levis-501-straight-in-hollow-days/dp/LEIV-WJ305/?d=Womens&amp;page=1&amp;lc=39&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SHOW-WR124_V1.jpg</t>
+  </si>
+  <si>
+    <t>Cannon Romper</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/show-me-your-mumu-cannon-romper-in-dockside/dp/SHOW-WR124/?d=Womens&amp;page=1&amp;lc=39&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>women_revolve_jeans_40</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/CITI-WJ1808_V1.jpg</t>
-  </si>
-  <si>
-    <t>CA$ 319.09</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/citizens-of-humanity-annina-jean-in-prophecy/dp/CITI-WJ1808/?d=Womens&amp;page=1&amp;lc=40&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WF62_V1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-parker-long-short-in-panna-cotta/dp/AGOL-WF62/?d=Womens&amp;page=1&amp;lc=40&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
 </sst>
 </file>
@@ -685,27 +673,27 @@
         <v>19</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>26</v>
@@ -731,710 +719,710 @@
         <v>31</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="E17" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="B17" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="E17" t="s" s="0">
-        <v>41</v>
-      </c>
       <c r="F17" t="s" s="0">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="B18" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s" s="0">
-        <v>82</v>
-      </c>
       <c r="E18" t="s" s="0">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s" s="0">
         <v>95</v>
       </c>
       <c r="E20" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="F20" t="s" s="0">
         <v>96</v>
-      </c>
-      <c r="F20" t="s" s="0">
-        <v>97</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B21" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="B21" t="s" s="0">
+      <c r="C21" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="C21" t="s" s="0">
+      <c r="E21" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="D21" t="s" s="0">
+      <c r="F21" t="s" s="0">
         <v>101</v>
-      </c>
-      <c r="E21" t="s" s="0">
-        <v>102</v>
-      </c>
-      <c r="F21" t="s" s="0">
-        <v>103</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C22" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="D22" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="C22" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s" s="0">
+      <c r="E22" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="F22" t="s" s="0">
         <v>106</v>
-      </c>
-      <c r="E22" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="F22" t="s" s="0">
-        <v>108</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="B23" t="s" s="0">
+      <c r="E23" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="F23" t="s" s="0">
         <v>110</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s" s="0">
-        <v>111</v>
-      </c>
-      <c r="E23" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="F23" t="s" s="0">
-        <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="B24" t="s" s="0">
+      <c r="E24" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="F24" t="s" s="0">
         <v>114</v>
-      </c>
-      <c r="C24" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="E24" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="F24" t="s" s="0">
-        <v>116</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="B25" t="s" s="0">
+      <c r="E25" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="F25" t="s" s="0">
         <v>118</v>
-      </c>
-      <c r="C25" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s" s="0">
-        <v>119</v>
-      </c>
-      <c r="E25" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="F25" t="s" s="0">
-        <v>120</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="F26" t="s" s="0">
         <v>121</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>122</v>
-      </c>
-      <c r="C26" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="D26" t="s" s="0">
-        <v>123</v>
-      </c>
-      <c r="E26" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="F26" t="s" s="0">
-        <v>124</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="F36" t="s" s="0">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="F41" t="s" s="0">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/womenRevolveJeans.xlsx
+++ b/src/main/resources/womenRevolveJeans.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="184">
   <si>
     <t>Id</t>
   </si>
@@ -137,16 +137,28 @@
     <t>women_revolve_jeans_7</t>
   </si>
   <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ95_V1.jpg</t>
+  </si>
+  <si>
+    <t>CA$ 268.85</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-90s-mid-rise-loose-fit-in-fall-out/dp/AGOL-WJ95/?d=Womens&amp;page=1&amp;lc=7&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_8</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ234_V1.jpg</t>
   </si>
   <si>
     <t>Pinch Waist High Rise Kick</t>
   </si>
   <si>
-    <t>https://www.revolve.com/agolde-pinch-waist-high-rise-kick-in-riptide/dp/AGOL-WJ234/?d=Womens&amp;page=1&amp;lc=7&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_8</t>
+    <t>https://www.revolve.com/agolde-pinch-waist-high-rise-kick-in-riptide/dp/AGOL-WJ234/?d=Womens&amp;page=1&amp;lc=8&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_9</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/SHOW-WC28_V1.jpg</t>
@@ -161,10 +173,40 @@
     <t>CA$ 349.29</t>
   </si>
   <si>
-    <t>https://www.revolve.com/show-me-your-mumu-jacksonville-jumpsuit-in-thunder/dp/SHOW-WC28/?d=Womens&amp;page=1&amp;lc=8&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_9</t>
+    <t>https://www.revolve.com/show-me-your-mumu-jacksonville-jumpsuit-in-thunder/dp/SHOW-WC28/?d=Womens&amp;page=1&amp;lc=9&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_10</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ179_V1.jpg</t>
+  </si>
+  <si>
+    <t>Cherie High Rise Straight</t>
+  </si>
+  <si>
+    <t>CA$ 151.70</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-cherie-high-rise-straight-in-merit/dp/AGOL-WJ179/?d=Womens&amp;page=1&amp;lc=10&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_11</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FREE-WC170_V1.jpg</t>
+  </si>
+  <si>
+    <t>x We The Free Ziggy Denim Overall</t>
+  </si>
+  <si>
+    <t>CA$ 264.37</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/free-people-x-we-the-free-ziggy-denim-overall-in-mineral-black/dp/FREE-WC170/?d=Womens&amp;page=1&amp;lc=11&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_12</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/SHOW-WD438_V1.jpg</t>
@@ -173,43 +215,13 @@
     <t>Outlaw Dress</t>
   </si>
   <si>
-    <t>CA$ 264.37</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/show-me-your-mumu-outlaw-dress-in-tide/dp/SHOW-WD438/?d=Womens&amp;page=1&amp;lc=9&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_10</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ179_V1.jpg</t>
-  </si>
-  <si>
-    <t>Cherie High Rise Straight</t>
-  </si>
-  <si>
-    <t>CA$ 151.70</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-cherie-high-rise-straight-in-merit/dp/AGOL-WJ179/?d=Womens&amp;page=1&amp;lc=10&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_11</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FREE-WC170_V1.jpg</t>
-  </si>
-  <si>
-    <t>x We The Free Ziggy Denim Overall</t>
-  </si>
-  <si>
     <t>CA$ 330.44</t>
   </si>
   <si>
-    <t>https://www.revolve.com/free-people-x-we-the-free-ziggy-denim-overall-in-mineral-black/dp/FREE-WC170/?d=Womens&amp;page=1&amp;lc=11&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_12</t>
+    <t>https://www.revolve.com/show-me-your-mumu-outlaw-dress-in-tide/dp/SHOW-WD438/?d=Womens&amp;page=1&amp;lc=12&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_13</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ295_V1.jpg</t>
@@ -218,22 +230,10 @@
     <t>90's Pinch Waist</t>
   </si>
   <si>
-    <t>CA$ 268.85</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-90s-pinch-waist-in-navigate/dp/AGOL-WJ295/?d=Womens&amp;page=1&amp;lc=12&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_13</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ95_V1.jpg</t>
-  </si>
-  <si>
     <t>CA$ 409.87</t>
   </si>
   <si>
-    <t>https://www.revolve.com/agolde-90s-mid-rise-loose-fit-in-fall-out/dp/AGOL-WJ95/?d=Womens&amp;page=1&amp;lc=13&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/agolde-90s-pinch-waist-in-navigate/dp/AGOL-WJ295/?d=Womens&amp;page=1&amp;lc=13&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>women_revolve_jeans_14</t>
@@ -254,13 +254,25 @@
     <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ446_V1.jpg</t>
   </si>
   <si>
+    <t>https://www.revolve.com/agolde-90s-pinch-waist-in-range/dp/AGOL-WJ446/?d=Womens&amp;page=1&amp;lc=15&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_16</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LEIV-WJ336_V1.jpg</t>
+  </si>
+  <si>
+    <t>Ribcage Full Length</t>
+  </si>
+  <si>
     <t>CA$ 346.33</t>
   </si>
   <si>
-    <t>https://www.revolve.com/agolde-90s-pinch-waist-in-range/dp/AGOL-WJ446/?d=Womens&amp;page=1&amp;lc=15&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_16</t>
+    <t>https://www.revolve.com/levis-ribcage-full-length-in-samba-tango-light/dp/LEIV-WJ336/?d=Womens&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_17</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ503_V1.jpg</t>
@@ -269,12 +281,6 @@
     <t>Harper Mid Rise Wide Straight</t>
   </si>
   <si>
-    <t>https://www.revolve.com/agolde-harper-mid-rise-wide-straight-in-hush/dp/AGOL-WJ503/?d=Womens&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_17</t>
-  </si>
-  <si>
     <t>CA$ 362.21</t>
   </si>
   <si>
@@ -323,6 +329,42 @@
     <t>women_revolve_jeans_21</t>
   </si>
   <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SHOW-WC5_V1.jpg</t>
+  </si>
+  <si>
+    <t>Everhart Jumpsuit</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/show-me-your-mumu-everhart-jumpsuit-in-lunar-blue/dp/SHOW-WC5/?d=Womens&amp;page=1&amp;lc=21&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_22</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WF87_V1.jpg</t>
+  </si>
+  <si>
+    <t>Parker Long Short</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-parker-long-short-in-wheel/dp/AGOL-WF87/?d=Womens&amp;page=1&amp;lc=22&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_23</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ232_V1.jpg</t>
+  </si>
+  <si>
+    <t>Riley High Rise Straight Crop</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-riley-high-rise-straight-crop-in-frequency/dp/AGOL-WJ232/?d=Womens&amp;page=1&amp;lc=23&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_24</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/MOTH-WJ886_V1.jpg</t>
   </si>
   <si>
@@ -332,34 +374,28 @@
     <t>The Hustler Ankle Fray</t>
   </si>
   <si>
-    <t>https://www.revolve.com/mother-the-hustler-ankle-fray-in-fairest-of-them-all/dp/MOTH-WJ886/?d=Womens&amp;page=1&amp;lc=21&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_22</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SHOW-WC5_V1.jpg</t>
-  </si>
-  <si>
-    <t>Everhart Jumpsuit</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/show-me-your-mumu-everhart-jumpsuit-in-lunar-blue/dp/SHOW-WC5/?d=Womens&amp;page=1&amp;lc=22&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_23</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ232_V1.jpg</t>
-  </si>
-  <si>
-    <t>Riley High Rise Straight Crop</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-riley-high-rise-straight-crop-in-frequency/dp/AGOL-WJ232/?d=Womens&amp;page=1&amp;lc=23&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_24</t>
+    <t>https://www.revolve.com/mother-the-hustler-ankle-fray-in-fairest-of-them-all/dp/MOTH-WJ886/?d=Womens&amp;page=1&amp;lc=24&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_25</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FREE-WC121_V1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/free-people-x-we-the-free-ziggy-denim-overall-in-powder-blue/dp/FREE-WC121/?d=Womens&amp;page=1&amp;lc=25&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_26</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ304_V1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-riley-high-rise-straight-crop-in-panoramic/dp/AGOL-WJ304/?d=Womens&amp;page=1&amp;lc=26&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_27</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/FREE-WJ291_V1.jpg</t>
@@ -368,37 +404,7 @@
     <t>x We The Free Good Luck Mid Rise Barrel</t>
   </si>
   <si>
-    <t>https://www.revolve.com/free-people-x-we-the-free-good-luck-mid-rise-barrel-in-ultra-light-beam/dp/FREE-WJ291/?d=Womens&amp;page=1&amp;lc=24&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_25</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FREE-WC121_V1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/free-people-x-we-the-free-ziggy-denim-overall-in-powder-blue/dp/FREE-WC121/?d=Womens&amp;page=1&amp;lc=25&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_26</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ304_V1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-riley-high-rise-straight-crop-in-panoramic/dp/AGOL-WJ304/?d=Womens&amp;page=1&amp;lc=26&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_27</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WF87_V1.jpg</t>
-  </si>
-  <si>
-    <t>Parker Long Short</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-parker-long-short-in-wheel/dp/AGOL-WF87/?d=Womens&amp;page=1&amp;lc=27&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/free-people-x-we-the-free-good-luck-mid-rise-barrel-in-ultra-light-beam/dp/FREE-WJ291/?d=Womens&amp;page=1&amp;lc=27&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>women_revolve_jeans_28</t>
@@ -422,22 +428,37 @@
     <t>Paloma Baggy</t>
   </si>
   <si>
+    <t>CA$ 404.63</t>
+  </si>
+  <si>
     <t>https://www.revolve.com/citizens-of-humanity-paloma-baggy-in-alemayde/dp/CITI-WJ1785/?d=Womens&amp;page=1&amp;lc=29&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>women_revolve_jeans_30</t>
   </si>
   <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/CITI-WJ1775_V1.jpg</t>
+  </si>
+  <si>
+    <t>Brynn Drawstring Trouser</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/citizens-of-humanity-brynn-drawstring-trouser-in-blue-lace/dp/CITI-WJ1775/?d=Womens&amp;page=1&amp;lc=30&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_31</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/LEIV-WO65_V1.jpg</t>
   </si>
   <si>
     <t>90s Trucker</t>
   </si>
   <si>
-    <t>https://www.revolve.com/levis-90s-trucker-in-soft-as-butter/dp/LEIV-WO65/?d=Womens&amp;page=1&amp;lc=30&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_31</t>
+    <t>https://www.revolve.com/levis-90s-trucker-in-soft-as-butter/dp/LEIV-WO65/?d=Womens&amp;page=1&amp;lc=31&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_jeans_32</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/LEIV-WJ226_V1.jpg</t>
@@ -446,115 +467,103 @@
     <t>501 Straight</t>
   </si>
   <si>
-    <t>CA$ 332.67</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/levis-501-straight-in-luxor-last/dp/LEIV-WJ226/?d=Womens&amp;page=1&amp;lc=31&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_jeans_32</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/GRLR-WJ447_V1.jpg</t>
-  </si>
-  <si>
-    <t>GRLFRND</t>
-  </si>
-  <si>
-    <t>Bella Low Rise Boyfriend</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/grlfrnd-bella-low-rise-boyfriend-in-santa-monica/dp/GRLR-WJ447/?d=Womens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/levis-501-straight-in-luxor-last/dp/LEIV-WJ226/?d=Womens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>women_revolve_jeans_33</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ472_V1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-riley-high-rise-straight-crop-in-dynamic/dp/AGOL-WJ472/?d=Womens&amp;page=1&amp;lc=33&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/MOTH-WJ1149_V1.jpg</t>
+  </si>
+  <si>
+    <t>The Insider Crop Step Fray</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/mother-the-insider-crop-step-fray-in-limited-edition/dp/MOTH-WJ1149/?d=Womens&amp;page=1&amp;lc=33&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>women_revolve_jeans_34</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/MOTH-WJ1149_V1.jpg</t>
-  </si>
-  <si>
-    <t>The Insider Crop Step Fray</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/mother-the-insider-crop-step-fray-in-limited-edition/dp/MOTH-WJ1149/?d=Womens&amp;page=1&amp;lc=34&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ533_V1.jpg</t>
+  </si>
+  <si>
+    <t>90s Pinch Waist High Rise Straight</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-90s-pinch-waist-high-rise-straight-in-crushed/dp/AGOL-WJ533/?d=Womens&amp;page=1&amp;lc=34&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>women_revolve_jeans_35</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ533_V1.jpg</t>
-  </si>
-  <si>
-    <t>90s Pinch Waist High Rise Straight</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-90s-pinch-waist-high-rise-straight-in-crushed/dp/AGOL-WJ533/?d=Womens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ496_V1.jpg</t>
+  </si>
+  <si>
+    <t>CA$ 269.17</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-harper-mid-rise-wide-straight-in-flash/dp/AGOL-WJ496/?d=Womens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>women_revolve_jeans_36</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LEIV-WJ305_V1.jpg</t>
-  </si>
-  <si>
-    <t>CA$ 404.63</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/levis-501-straight-in-hollow-days/dp/LEIV-WJ305/?d=Womens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SHOW-WR124_V1.jpg</t>
+  </si>
+  <si>
+    <t>Cannon Romper</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/show-me-your-mumu-cannon-romper-in-dockside/dp/SHOW-WR124/?d=Womens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>women_revolve_jeans_37</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/CITI-WJ1775_V1.jpg</t>
-  </si>
-  <si>
-    <t>Brynn Drawstring Trouser</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/citizens-of-humanity-brynn-drawstring-trouser-in-blue-lace/dp/CITI-WJ1775/?d=Womens&amp;page=1&amp;lc=37&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WF62_V1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/agolde-parker-long-short-in-panna-cotta/dp/AGOL-WF62/?d=Womens&amp;page=1&amp;lc=37&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>women_revolve_jeans_38</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WJ496_V1.jpg</t>
-  </si>
-  <si>
-    <t>CA$ 269.17</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-harper-mid-rise-wide-straight-in-flash/dp/AGOL-WJ496/?d=Womens&amp;page=1&amp;lc=38&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/CITI-WJ1483_V1.jpg</t>
+  </si>
+  <si>
+    <t>Annina Trouser</t>
+  </si>
+  <si>
+    <t>CA$ 309.58</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/citizens-of-humanity-annina-trouser-in-blue-rose/dp/CITI-WJ1483/?d=Womens&amp;page=1&amp;lc=38&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>women_revolve_jeans_39</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SHOW-WR124_V1.jpg</t>
-  </si>
-  <si>
-    <t>Cannon Romper</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/show-me-your-mumu-cannon-romper-in-dockside/dp/SHOW-WR124/?d=Womens&amp;page=1&amp;lc=39&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/MOTH-WJ1059_V1.jpg</t>
+  </si>
+  <si>
+    <t>Mid Rise Dazzler Ankle Fray</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/mother-mid-rise-dazzler-ankle-fray-in-riding-the-cliffside/dp/MOTH-WJ1059/?d=Womens&amp;page=1&amp;lc=39&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>women_revolve_jeans_40</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AGOL-WF62_V1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/agolde-parker-long-short-in-panna-cotta/dp/AGOL-WF62/?d=Womens&amp;page=1&amp;lc=40&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/CITI-WJ1621_V1.jpg</t>
+  </si>
+  <si>
+    <t>Charlotte High Rise Straight</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/citizens-of-humanity-charlotte-high-rise-straight-in-dresden/dp/CITI-WJ1621/?d=Womens&amp;page=1&amp;lc=40&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
 </sst>
 </file>
@@ -756,10 +765,10 @@
         <v>8</v>
       </c>
       <c r="D8" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s" s="0">
         <v>42</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>10</v>
       </c>
       <c r="F8" t="s" s="0">
         <v>43</v>
@@ -773,110 +782,110 @@
         <v>45</v>
       </c>
       <c r="C9" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="E9" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s" s="0">
         <v>47</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="D10" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="C10" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="D10" t="s" s="0">
+      <c r="E10" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="E10" t="s" s="0">
+      <c r="F10" t="s" s="0">
         <v>53</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="C11" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="C11" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s" s="0">
+      <c r="E11" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="F11" t="s" s="0">
         <v>58</v>
-      </c>
-      <c r="F11" t="s" s="0">
-        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>60</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>61</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D12" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="E12" t="s" s="0">
+      <c r="F12" t="s" s="0">
         <v>63</v>
-      </c>
-      <c r="F12" t="s" s="0">
-        <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="C13" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="C13" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s" s="0">
+      <c r="E13" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="E13" t="s" s="0">
+      <c r="F13" t="s" s="0">
         <v>68</v>
-      </c>
-      <c r="F13" t="s" s="0">
-        <v>69</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="C14" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s" s="0">
         <v>71</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>26</v>
       </c>
       <c r="E14" t="s" s="0">
         <v>72</v>
@@ -899,7 +908,7 @@
         <v>76</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F15" t="s" s="0">
         <v>77</v>
@@ -916,30 +925,30 @@
         <v>8</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s" s="0">
         <v>80</v>
-      </c>
-      <c r="F16" t="s" s="0">
-        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="C17" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="C17" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s" s="0">
+      <c r="E17" t="s" s="0">
         <v>84</v>
-      </c>
-      <c r="E17" t="s" s="0">
-        <v>80</v>
       </c>
       <c r="F17" t="s" s="0">
         <v>85</v>
@@ -950,479 +959,479 @@
         <v>86</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" t="s" s="0">
         <v>27</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E28" t="s" s="0">
         <v>38</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>20</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>160</v>
+        <v>88</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c r="F36" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>84</v>
+        <v>173</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="E40" t="s" s="0">
         <v>174</v>
       </c>
-      <c r="B40" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="C40" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="D40" t="s" s="0">
-        <v>176</v>
-      </c>
-      <c r="E40" t="s" s="0">
-        <v>32</v>
-      </c>
       <c r="F40" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F41" t="s" s="0">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
